--- a/Original Data/Spring_Mow_Burn_Data.xlsx
+++ b/Original Data/Spring_Mow_Burn_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287EC41F-4FD9-1343-8768-29CB074B4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A78CF0-4A6E-3948-804B-723368015382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1080" windowWidth="25800" windowHeight="16280" activeTab="2" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="220" yWindow="1080" windowWidth="25800" windowHeight="16280" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Veg" sheetId="7" r:id="rId7"/>
     <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="827">
   <si>
     <t>Code</t>
   </si>
@@ -2520,6 +2520,9 @@
   </si>
   <si>
     <t>MA</t>
+  </si>
+  <si>
+    <t>Plot_No</t>
   </si>
 </sst>
 </file>
@@ -7636,7 +7639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEA277-0E57-8840-A58F-064455B4C014}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
@@ -26579,9 +26582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B177"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26599,7 +26602,7 @@
         <v>807</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>812</v>
